--- a/medicine/Enfance/Christophe_Bataillon/Christophe_Bataillon.xlsx
+++ b/medicine/Enfance/Christophe_Bataillon/Christophe_Bataillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Bataillon est un illustrateur et auteur de bande dessinée français né le 12 octobre 1979 à Paris[1]. Ses travaux s'adressent principalement à la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Bataillon est un illustrateur et auteur de bande dessinée français né le 12 octobre 1979 à Paris. Ses travaux s'adressent principalement à la jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Bataillon a étudié à l'École européenne supérieure de l'image d'Angoulême[2], et crée avec des étudiants les éditions Angoulm[2]. Il a exercé le métier de puériculteur[3] et participé à une troupe de théâtre amateur. 
-Il collabore à plusieurs revues pour la presse jeunesse (Tchô, Le journal de Mickey, J'aime lire, etc.)[3],[2] et différents collectifs de bandes dessinées (Terriens, Chococreed[4],[2]…). Il réalise des jeux dans Spirou depuis 2006[5]. Il vit et travaille à Paris, où il partage l'atelier L'Atel Yeah avec plusieurs autres illustrateurs[6]. 
-Son premier album, Nos cousins les dinosaures, un récit muet, reçoit des critiques positives[7]. Bataillon participe à des ateliers scolaires[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Bataillon a étudié à l'École européenne supérieure de l'image d'Angoulême, et crée avec des étudiants les éditions Angoulm. Il a exercé le métier de puériculteur et participé à une troupe de théâtre amateur. 
+Il collabore à plusieurs revues pour la presse jeunesse (Tchô, Le journal de Mickey, J'aime lire, etc.), et différents collectifs de bandes dessinées (Terriens, Chococreed,…). Il réalise des jeux dans Spirou depuis 2006. Il vit et travaille à Paris, où il partage l'atelier L'Atel Yeah avec plusieurs autres illustrateurs. 
+Son premier album, Nos cousins les dinosaures, un récit muet, reçoit des critiques positives. Bataillon participe à des ateliers scolaires. 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Intempéries, éd. Angoulm, 2005
 The loser lover, éd. Angoulm, 2005
@@ -584,11 +600,13 @@
           <t>Presse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parmi ses contributions, les titres de presse[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi ses contributions, les titres de presse :
 Le Journal de Mickey - Picsou magazine - Spirou - J’aime Lire - Images Doc - Guitarist mag
-Parmi ses contributions, les revues[2] :
+Parmi ses contributions, les revues :
 Warburger, Strip Core Forum Ljubljana, 2003.
 Au fil du Nil, n° 11, 12, et 14 (revue de l’Ecole Supérieure de l’Image), 2003/2005.
 Les Bataillonades, 4 numéros, éd. Angoulm, 2004.
@@ -623,9 +641,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa bande dessinée jeunesse, Un rond de deux points, le petit manuel qui t'apprend à dessiner remporte le 15e prix Bull'Gomme 53 en 2018 lors des 11es Rencontres BD à Changé[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa bande dessinée jeunesse, Un rond de deux points, le petit manuel qui t'apprend à dessiner remporte le 15e prix Bull'Gomme 53 en 2018 lors des 11es Rencontres BD à Changé.
 </t>
         </is>
       </c>
